--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,97 +43,100 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>falling</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>shit</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
@@ -142,9 +145,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -154,199 +154,205 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>better</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>share</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>day</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>shopping</t>
   </si>
 </sst>
 </file>
@@ -704,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9166666666666666</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -873,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8013698630136986</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8787878787878788</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,16 +1100,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8302872062663186</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,16 +1250,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8085106382978723</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6333333333333333</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5932203389830508</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
@@ -1573,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7735849056603774</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L19">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5465116279069767</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C20">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D20">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7734375</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5396825396825397</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,37 +1729,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.76875</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L22">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4697986577181208</v>
+        <v>0.525</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.5132275132275133</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7441860465116279</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4324324324324325</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7291666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1965,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4193548387096774</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4133333333333333</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2065,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.40625</v>
+        <v>0.44</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,31 +2097,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6875</v>
       </c>
       <c r="L29">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>15</v>
-      </c>
-      <c r="M29">
-        <v>15</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2141,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2173,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2191,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6411764705882353</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3818181818181818</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2241,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2265,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2273,13 +2279,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2315,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2323,13 +2329,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.375</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2341,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2365,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2373,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3116883116883117</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2391,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2415,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2423,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2777777777777778</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2441,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.6142857142857143</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2465,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2473,37 +2479,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2698412698412698</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>68</v>
       </c>
-      <c r="D37">
-        <v>68</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>184</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.6086956521739131</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2515,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2523,13 +2529,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2375</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2541,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.6071428571428571</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2565,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2573,13 +2579,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1662198391420912</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2591,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.6</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2615,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2623,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08333333333333333</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.6</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2665,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2673,37 +2679,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0146551724137931</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D41">
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>0.12</v>
+      </c>
+      <c r="F41">
+        <v>0.88</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3050</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L41">
         <v>18</v>
       </c>
-      <c r="E41">
-        <v>0.06</v>
-      </c>
-      <c r="F41">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1143</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K41">
-        <v>0.5899581589958159</v>
-      </c>
-      <c r="L41">
-        <v>141</v>
-      </c>
       <c r="M41">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2715,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2723,37 +2729,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0145114479200258</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F42">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>3056</v>
+        <v>1144</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.5864406779661017</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L42">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2765,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2773,37 +2779,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01405152224824356</v>
+        <v>0.01216658867571362</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E43">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F43">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2105</v>
+        <v>2111</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.5851063829787234</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2815,21 +2821,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.005676442762535478</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0.62</v>
+      </c>
+      <c r="F44">
+        <v>0.38</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3153</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5833333333333334</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2841,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2867,47 +2897,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
+        <v>15</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>13</v>
-      </c>
-      <c r="M46">
-        <v>13</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.5490196078431373</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2919,21 +2949,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.5393258426966292</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L48">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2945,47 +2975,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.5357142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>15</v>
-      </c>
-      <c r="M49">
-        <v>15</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.5185185185185185</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2997,21 +3027,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.4888888888888889</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3023,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.4523809523809524</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3049,15 +3079,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.3561643835616438</v>
+        <v>0.40625</v>
       </c>
       <c r="L53">
         <v>26</v>
@@ -3075,21 +3105,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.328125</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3101,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3127,21 +3157,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.3050847457627119</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3153,21 +3183,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.2948717948717949</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3179,21 +3209,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.2622950819672131</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3205,99 +3235,99 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.1851851851851852</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60">
+        <v>0.1300813008130081</v>
+      </c>
+      <c r="L60">
+        <v>16</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O60">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
         <v>107</v>
-      </c>
-      <c r="K60">
-        <v>0.1048387096774194</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.08108108108108109</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>170</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.04220779220779221</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3309,33 +3339,85 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>295</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.009093759799310128</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>3160</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K64">
+        <v>0.04326923076923077</v>
+      </c>
+      <c r="L64">
+        <v>18</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65">
+        <v>0.00942507068803016</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>48</v>
+      </c>
+      <c r="N65">
+        <v>0.62</v>
+      </c>
+      <c r="O65">
+        <v>0.38</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
